--- a/Team-Data/2014-15/12-6-2014-15.xlsx
+++ b/Team-Data/2014-15/12-6-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>3.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -777,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>18</v>
@@ -789,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -816,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -959,7 +1026,7 @@
         <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -974,19 +1041,19 @@
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -1108,28 +1175,28 @@
         <v>-2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG4" t="n">
         <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>18</v>
       </c>
       <c r="AH4" t="n">
         <v>1</v>
       </c>
       <c r="AI4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1138,13 +1205,13 @@
         <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>8</v>
@@ -1159,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="AU4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
         <v>21</v>
@@ -1168,16 +1235,16 @@
         <v>22</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ4" t="n">
         <v>12</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -1299,10 +1366,10 @@
         <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1317,16 +1384,16 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ5" t="n">
         <v>20</v>
@@ -1335,10 +1402,10 @@
         <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU5" t="n">
         <v>16</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
         <v>8</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.632</v>
       </c>
       <c r="H6" t="n">
         <v>48.8</v>
@@ -1412,10 +1479,10 @@
         <v>37</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K6" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L6" t="n">
         <v>7.7</v>
@@ -1424,64 +1491,64 @@
         <v>21.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P6" t="n">
         <v>27.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.764</v>
+        <v>0.759</v>
       </c>
       <c r="R6" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="S6" t="n">
         <v>33.6</v>
       </c>
       <c r="T6" t="n">
-        <v>44.1</v>
+        <v>43.8</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V6" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="W6" t="n">
         <v>6.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AB6" t="n">
         <v>102.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>3</v>
@@ -1493,7 +1560,7 @@
         <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
         <v>13</v>
@@ -1511,25 +1578,25 @@
         <v>3</v>
       </c>
       <c r="AQ6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX6" t="n">
         <v>3</v>
@@ -1541,13 +1608,13 @@
         <v>9</v>
       </c>
       <c r="BA6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1663,13 +1730,13 @@
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>14</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
@@ -1693,28 +1760,28 @@
         <v>5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT7" t="n">
         <v>22</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>23</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>16</v>
       </c>
       <c r="AX7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
         <v>15</v>
@@ -1723,13 +1790,13 @@
         <v>2</v>
       </c>
       <c r="BA7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -1758,97 +1825,97 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>0.75</v>
+        <v>0.714</v>
       </c>
       <c r="H8" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I8" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="J8" t="n">
-        <v>87</v>
+        <v>86.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M8" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="N8" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O8" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P8" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.762</v>
+        <v>0.765</v>
       </c>
       <c r="R8" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S8" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.7</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>24.2</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="W8" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X8" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z8" t="n">
         <v>20.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.5</v>
+        <v>110</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>2</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1866,28 +1933,28 @@
         <v>2</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>3</v>
@@ -1896,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="AX8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
@@ -1905,13 +1972,13 @@
         <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-1.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>16</v>
@@ -2042,13 +2109,13 @@
         <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
         <v>7</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>6</v>
@@ -2057,13 +2124,13 @@
         <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
@@ -2072,7 +2139,7 @@
         <v>19</v>
       </c>
       <c r="AV9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW9" t="n">
         <v>19</v>
@@ -2081,7 +2148,7 @@
         <v>9</v>
       </c>
       <c r="AY9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2093,7 +2160,7 @@
         <v>6</v>
       </c>
       <c r="BC9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>0.15</v>
+        <v>0.158</v>
       </c>
       <c r="H10" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="I10" t="n">
         <v>34.4</v>
       </c>
       <c r="J10" t="n">
-        <v>84.90000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.405</v>
+        <v>0.406</v>
       </c>
       <c r="L10" t="n">
         <v>7.8</v>
@@ -2152,55 +2219,55 @@
         <v>23</v>
       </c>
       <c r="N10" t="n">
-        <v>0.337</v>
+        <v>0.341</v>
       </c>
       <c r="O10" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="P10" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="R10" t="n">
         <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="T10" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U10" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="W10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>29</v>
@@ -2212,13 +2279,13 @@
         <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
@@ -2230,10 +2297,10 @@
         <v>12</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2245,31 +2312,31 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BB10" t="n">
         <v>28</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.895</v>
+        <v>0.889</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
@@ -2322,46 +2389,46 @@
         <v>40.3</v>
       </c>
       <c r="J11" t="n">
-        <v>83.5</v>
+        <v>83.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.482</v>
+        <v>0.484</v>
       </c>
       <c r="L11" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M11" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P11" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R11" t="n">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="S11" t="n">
-        <v>35.7</v>
+        <v>36.3</v>
       </c>
       <c r="T11" t="n">
-        <v>45.6</v>
+        <v>45.9</v>
       </c>
       <c r="U11" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="V11" t="n">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="W11" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
         <v>6.4</v>
@@ -2373,16 +2440,16 @@
         <v>20.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>107.1</v>
+        <v>106.8</v>
       </c>
       <c r="AC11" t="n">
         <v>10.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
         <v>3</v>
@@ -2403,31 +2470,31 @@
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
@@ -2439,7 +2506,7 @@
         <v>27</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX11" t="n">
         <v>1</v>
@@ -2451,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -2501,70 +2568,70 @@
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J12" t="n">
-        <v>80.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="L12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="M12" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>18.1</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.716</v>
+        <v>0.711</v>
       </c>
       <c r="R12" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="V12" t="n">
-        <v>18.1</v>
+        <v>17.6</v>
       </c>
       <c r="W12" t="n">
         <v>9.1</v>
       </c>
       <c r="X12" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.7</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>2</v>
@@ -2579,10 +2646,10 @@
         <v>16</v>
       </c>
       <c r="AI12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>24</v>
       </c>
       <c r="AK12" t="n">
         <v>26</v>
@@ -2597,25 +2664,25 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,22 +2691,22 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>21</v>
@@ -2758,10 +2825,10 @@
         <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>12</v>
@@ -2785,10 +2852,10 @@
         <v>27</v>
       </c>
       <c r="AQ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2800,7 +2867,7 @@
         <v>30</v>
       </c>
       <c r="AV13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>30</v>
@@ -2809,13 +2876,13 @@
         <v>11</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>14</v>
       </c>
       <c r="BA13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -2850,46 +2917,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.737</v>
+        <v>0.722</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.486</v>
+        <v>0.483</v>
       </c>
       <c r="L14" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="M14" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.391</v>
+        <v>0.382</v>
       </c>
       <c r="O14" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P14" t="n">
         <v>24.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.764</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
         <v>7.2</v>
@@ -2901,37 +2968,37 @@
         <v>38.9</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
       <c r="V14" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="W14" t="n">
         <v>7.2</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y14" t="n">
         <v>3.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.4</v>
+        <v>105.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2940,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>7</v>
@@ -2949,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL14" t="n">
         <v>2</v>
@@ -2958,16 +3025,16 @@
         <v>3</v>
       </c>
       <c r="AN14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>30</v>
@@ -2982,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
         <v>18</v>
@@ -3000,10 +3067,10 @@
         <v>7</v>
       </c>
       <c r="BB14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.263</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="J15" t="n">
-        <v>86.7</v>
+        <v>86.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.444</v>
       </c>
       <c r="L15" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="M15" t="n">
-        <v>18.5</v>
+        <v>18.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O15" t="n">
-        <v>19.9</v>
+        <v>20.5</v>
       </c>
       <c r="P15" t="n">
-        <v>26.7</v>
+        <v>27.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.746</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
         <v>12.3</v>
       </c>
       <c r="S15" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="T15" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V15" t="n">
         <v>12.6</v>
@@ -3098,40 +3165,40 @@
         <v>3.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>104</v>
+        <v>103.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-7.4</v>
+        <v>-7.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
         <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>3</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
@@ -3140,49 +3207,49 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU15" t="n">
         <v>24</v>
       </c>
-      <c r="AT15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>22</v>
-      </c>
       <c r="AV15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW15" t="n">
         <v>17</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
         <v>6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>6.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>2</v>
@@ -3304,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
         <v>13</v>
@@ -3337,10 +3404,10 @@
         <v>19</v>
       </c>
       <c r="AS16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT16" t="n">
         <v>18</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>12</v>
@@ -3352,7 +3419,7 @@
         <v>9</v>
       </c>
       <c r="AX16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY16" t="n">
         <v>18</v>
@@ -3361,13 +3428,13 @@
         <v>5</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
         <v>15</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -3474,22 +3541,22 @@
         <v>-2.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
         <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="AL17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM17" t="n">
         <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
@@ -3513,7 +3580,7 @@
         <v>8</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3528,13 +3595,13 @@
         <v>20</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
         <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY17" t="n">
         <v>9</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -3662,25 +3729,25 @@
         <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>2</v>
       </c>
       <c r="AI18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
         <v>16</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>15</v>
-      </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
         <v>23</v>
@@ -3689,22 +3756,22 @@
         <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>7</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS18" t="n">
         <v>23</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU18" t="n">
         <v>10</v>
@@ -3719,7 +3786,7 @@
         <v>18</v>
       </c>
       <c r="AY18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
         <v>24</v>
@@ -3728,10 +3795,10 @@
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -3760,67 +3827,67 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.211</v>
+        <v>0.222</v>
       </c>
       <c r="H19" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I19" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J19" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M19" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O19" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="R19" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="T19" t="n">
-        <v>40.3</v>
+        <v>40.7</v>
       </c>
       <c r="U19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="W19" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y19" t="n">
         <v>5.6</v>
@@ -3832,28 +3899,28 @@
         <v>23.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>-10.4</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
         <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ19" t="n">
         <v>7</v>
@@ -3871,37 +3938,37 @@
         <v>17</v>
       </c>
       <c r="AO19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP19" t="n">
         <v>5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>4</v>
       </c>
       <c r="AQ19" t="n">
         <v>21</v>
       </c>
       <c r="AR19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT19" t="n">
         <v>26</v>
       </c>
       <c r="AU19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV19" t="n">
         <v>23</v>
       </c>
       <c r="AW19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ19" t="n">
         <v>19</v>
@@ -3910,7 +3977,7 @@
         <v>5</v>
       </c>
       <c r="BB19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -3945,157 +4012,157 @@
         <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>0.412</v>
+        <v>0.471</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>84.8</v>
+        <v>86</v>
       </c>
       <c r="K20" t="n">
-        <v>0.451</v>
+        <v>0.447</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.338</v>
+        <v>0.332</v>
       </c>
       <c r="O20" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.737</v>
+        <v>0.724</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>12.2</v>
       </c>
       <c r="S20" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="T20" t="n">
-        <v>41.9</v>
+        <v>42.9</v>
       </c>
       <c r="U20" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="W20" t="n">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z20" t="n">
         <v>21.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="AB20" t="n">
         <v>100.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="n">
         <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL20" t="n">
         <v>24</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>22</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ20" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC20" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -4208,13 +4275,13 @@
         <v>27</v>
       </c>
       <c r="AF21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
         <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>22</v>
@@ -4223,7 +4290,7 @@
         <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>16</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4247,7 +4314,7 @@
         <v>14</v>
       </c>
       <c r="AS21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
@@ -4256,7 +4323,7 @@
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
@@ -4277,7 +4344,7 @@
         <v>27</v>
       </c>
       <c r="BC21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>22</v>
@@ -4411,19 +4478,19 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP22" t="n">
         <v>19</v>
       </c>
       <c r="AQ22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR22" t="n">
         <v>15</v>
@@ -4432,10 +4499,10 @@
         <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV22" t="n">
         <v>25</v>
@@ -4450,7 +4517,7 @@
         <v>22</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>21</v>
@@ -4459,7 +4526,7 @@
         <v>29</v>
       </c>
       <c r="BC22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -4491,67 +4558,67 @@
         <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.409</v>
+        <v>0.364</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M23" t="n">
-        <v>18.4</v>
+        <v>17.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O23" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="P23" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>32.3</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.2</v>
+        <v>42</v>
       </c>
       <c r="U23" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="W23" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="Z23" t="n">
         <v>21.1</v>
@@ -4560,46 +4627,46 @@
         <v>20</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.6</v>
+        <v>-5.8</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>22</v>
       </c>
       <c r="AM23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP23" t="n">
         <v>28</v>
@@ -4611,13 +4678,13 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
         <v>24</v>
@@ -4626,10 +4693,10 @@
         <v>21</v>
       </c>
       <c r="AX23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY23" t="n">
         <v>30</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>24</v>
       </c>
       <c r="AZ23" t="n">
         <v>16</v>
@@ -4641,7 +4708,7 @@
         <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>18</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1</v>
+        <v>0.053</v>
       </c>
       <c r="H24" t="n">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="J24" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.414</v>
+        <v>0.411</v>
       </c>
       <c r="L24" t="n">
         <v>7.2</v>
@@ -4700,55 +4767,55 @@
         <v>24</v>
       </c>
       <c r="N24" t="n">
-        <v>0.299</v>
+        <v>0.298</v>
       </c>
       <c r="O24" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.664</v>
+        <v>0.662</v>
       </c>
       <c r="R24" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S24" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>40.7</v>
       </c>
       <c r="U24" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="V24" t="n">
         <v>18.4</v>
       </c>
       <c r="W24" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="X24" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y24" t="n">
         <v>5.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>92</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-12.1</v>
+        <v>-13.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4760,13 +4827,13 @@
         <v>30</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -4784,22 +4851,22 @@
         <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
       </c>
       <c r="AT24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU24" t="n">
         <v>21</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>17</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4811,13 +4878,13 @@
         <v>15</v>
       </c>
       <c r="AY24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -4852,85 +4919,85 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" t="n">
         <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>0.571</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>39</v>
+        <v>39.3</v>
       </c>
       <c r="J25" t="n">
-        <v>85.7</v>
+        <v>85.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.455</v>
+        <v>0.46</v>
       </c>
       <c r="L25" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N25" t="n">
-        <v>0.365</v>
+        <v>0.371</v>
       </c>
       <c r="O25" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P25" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>32</v>
+        <v>32.4</v>
       </c>
       <c r="T25" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U25" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V25" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="X25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.2</v>
+        <v>105.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4942,55 +5009,55 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT25" t="n">
         <v>15</v>
       </c>
-      <c r="AT25" t="n">
-        <v>16</v>
-      </c>
       <c r="AU25" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AV25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
@@ -5002,10 +5069,10 @@
         <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>2</v>
@@ -5124,10 +5191,10 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ26" t="n">
         <v>5</v>
@@ -5142,34 +5209,34 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP26" t="n">
         <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
         <v>9</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX26" t="n">
         <v>5</v>
@@ -5181,13 +5248,13 @@
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>0.526</v>
       </c>
       <c r="H27" t="n">
         <v>48.8</v>
@@ -5234,67 +5301,67 @@
         <v>35.7</v>
       </c>
       <c r="J27" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="K27" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L27" t="n">
         <v>4.4</v>
       </c>
       <c r="M27" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.311</v>
+        <v>0.313</v>
       </c>
       <c r="O27" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="P27" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="Q27" t="n">
         <v>0.793</v>
       </c>
       <c r="R27" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S27" t="n">
-        <v>33.6</v>
+        <v>34</v>
       </c>
       <c r="T27" t="n">
-        <v>44.8</v>
+        <v>45.3</v>
       </c>
       <c r="U27" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V27" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="W27" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.4</v>
+        <v>101.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>15</v>
@@ -5303,7 +5370,7 @@
         <v>14</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
         <v>3</v>
@@ -5315,7 +5382,7 @@
         <v>29</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL27" t="n">
         <v>30</v>
@@ -5342,7 +5409,7 @@
         <v>5</v>
       </c>
       <c r="AT27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU27" t="n">
         <v>27</v>
@@ -5354,10 +5421,10 @@
         <v>28</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -5413,70 +5480,70 @@
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7</v>
+        <v>37.2</v>
       </c>
       <c r="J28" t="n">
-        <v>82.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>22.2</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.368</v>
+        <v>0.376</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.791</v>
+        <v>0.786</v>
       </c>
       <c r="R28" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="T28" t="n">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="U28" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="W28" t="n">
         <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y28" t="n">
         <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.2</v>
+        <v>100</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>7</v>
@@ -5485,58 +5552,58 @@
         <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
         <v>16</v>
       </c>
       <c r="AI28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM28" t="n">
         <v>14</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>15</v>
-      </c>
       <c r="AN28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5545,13 +5612,13 @@
         <v>4</v>
       </c>
       <c r="BA28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB28" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -5673,13 +5740,13 @@
         <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
         <v>2</v>
@@ -5703,10 +5770,10 @@
         <v>16</v>
       </c>
       <c r="AS29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
         <v>23</v>
@@ -5724,7 +5791,7 @@
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -5849,10 +5916,10 @@
         <v>25</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
         <v>23</v>
@@ -5870,31 +5937,31 @@
         <v>19</v>
       </c>
       <c r="AN30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>23</v>
       </c>
-      <c r="AO30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>24</v>
-      </c>
       <c r="AR30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU30" t="n">
         <v>17</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
@@ -6022,25 +6089,25 @@
         <v>4.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF31" t="n">
         <v>5</v>
       </c>
       <c r="AG31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH31" t="n">
         <v>14</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
         <v>5</v>
@@ -6055,7 +6122,7 @@
         <v>4</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP31" t="n">
         <v>17</v>
@@ -6070,7 +6137,7 @@
         <v>10</v>
       </c>
       <c r="AT31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
         <v>3</v>
@@ -6088,16 +6155,16 @@
         <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
         <v>10</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-6-2014-15</t>
+          <t>2014-12-06</t>
         </is>
       </c>
     </row>
